--- a/doc/Belenus_1_6_1_status.xlsx
+++ b/doc/Belenus_1_6_1_status.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -210,20 +210,47 @@
     <t>A programban lehetőség lesz beállítani, hogy milyen esetekben, mikor és milyen tartalmú üzenetet küldjön a program.</t>
   </si>
   <si>
-    <t>Tervezett elkészülés
+    <t>-</t>
+  </si>
+  <si>
+    <t>Prioritás Sorrend</t>
+  </si>
+  <si>
+    <t>Függés</t>
+  </si>
+  <si>
+    <t>Kész
+ dátum</t>
+  </si>
+  <si>
+    <t>Munka
 (nap)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Prioritás Sorrend</t>
+    <t>UniGifter</t>
+  </si>
+  <si>
+    <t>UniGifter
+Webszerver</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>2017.09.11</t>
+  </si>
+  <si>
+    <t>2017.09.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\-yy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -339,9 +366,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -354,7 +378,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -432,9 +465,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$E$20</c:f>
+              <c:f>Sheet1!$A$20:$F$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -448,6 +481,10 @@
                   <c:v>A programban lehetőség lesz beállítani, hogy milyen esetekben, mikor és milyen tartalmú üzenetet küldjön a program.</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UniGifter
+Webszerver</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
               </c:strCache>
@@ -465,7 +502,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$19</c:f>
+              <c:f>Sheet1!$G$1:$G$19</c:f>
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
@@ -530,7 +567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$20</c:f>
+              <c:f>Sheet1!$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1590,23 +1627,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="60.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="15.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1618,433 +1656,553 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H2" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H9" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="9">
         <v>7</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9">
         <v>7</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H16" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H17" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H19" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="9">
         <v>30</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
